--- a/biology/Médecine/Syndrome_d'Andersen-Tawil/Syndrome_d'Andersen-Tawil.xlsx
+++ b/biology/Médecine/Syndrome_d'Andersen-Tawil/Syndrome_d'Andersen-Tawil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Andersen-Tawil</t>
+          <t>Syndrome_d'Andersen-Tawil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome d'Andersen-Tawil  est l'association d'une triade associant :
 Faiblesse musculaire avec épisode de paralysie
-Arythmie ventriculaire et pseudo allongement de l'espace QT (le QT étant de largeur normale si on exclut l'onde U[1])
+Arythmie ventriculaire et pseudo allongement de l'espace QT (le QT étant de largeur normale si on exclut l'onde U)
 Anomalies morphologiques comme implantation basse des oreilles, hypertélorisme, syndactylie, petite taille.
-Il peut s'accompagner d'une cardiomyopathie dilatée[2].
+Il peut s'accompagner d'une cardiomyopathie dilatée.
 </t>
         </is>
       </c>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Andersen-Tawil</t>
+          <t>Syndrome_d'Andersen-Tawil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,9 +528,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome a été décrit pour la première fois par Ellen Damgaard Andersen en 1971, chez un garçon de huit ans[3]. Rabi Tawil décrit le rôle du potassium dans les symptômes, en 1994[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome a été décrit pour la première fois par Ellen Damgaard Andersen en 1971, chez un garçon de huit ans. Rabi Tawil décrit le rôle du potassium dans les symptômes, en 1994.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Andersen-Tawil</t>
+          <t>Syndrome_d'Andersen-Tawil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie fait partie des canalopathies. Elle est secondaire à la perturbation du canal potassique Kir2.1[5], dont le KCNJ2 est la protéine constituante mutée[6], entraînant un syndrome d'Andersen-Tawil de type 1. L'atteinte d'une autre protéine canalaire, le KCNJ5 provoque un syndrome d'Andersen-Tawil dit de type 2.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie fait partie des canalopathies. Elle est secondaire à la perturbation du canal potassique Kir2.1, dont le KCNJ2 est la protéine constituante mutée, entraînant un syndrome d'Andersen-Tawil de type 1. L'atteinte d'une autre protéine canalaire, le KCNJ5 provoque un syndrome d'Andersen-Tawil dit de type 2.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Andersen-Tawil</t>
+          <t>Syndrome_d'Andersen-Tawil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le risque est essentiellement la survenue d'un trouble du rythme ventriculaire pouvant conduire à une syncope ou à une mort subite, avec une fréquence approchant le 8 % sur cinq ans pour le syndrome de type 1[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le risque est essentiellement la survenue d'un trouble du rythme ventriculaire pouvant conduire à une syncope ou à une mort subite, avec une fréquence approchant le 8 % sur cinq ans pour le syndrome de type 1.
 </t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Andersen-Tawil</t>
+          <t>Syndrome_d'Andersen-Tawil</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bêta-bloquants sont inefficace dans le syndrome de type 1[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bêta-bloquants sont inefficace dans le syndrome de type 1.
 </t>
         </is>
       </c>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Andersen-Tawil</t>
+          <t>Syndrome_d'Andersen-Tawil</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Mort subite (médecine)</t>
         </is>
